--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-09/Sample-09.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-09/Sample-09.xlsx
@@ -123,6 +123,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
